--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999255026150935</v>
+        <v>0.9999991487265741</v>
       </c>
       <c r="E2">
-        <v>0.9999255026150935</v>
+        <v>0.9999991487265741</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.636202486905665E-07</v>
+        <v>0.5671078505259338</v>
       </c>
       <c r="E3">
-        <v>2.636202486905665E-07</v>
+        <v>0.5671078505259338</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999997174399221</v>
+        <v>0.9999999550198206</v>
       </c>
       <c r="E4">
-        <v>0.9999997174399221</v>
+        <v>0.9999999550198206</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>8.323503758762236E-07</v>
+        <v>0.0001101138337851883</v>
       </c>
       <c r="E5">
-        <v>8.323503758762236E-07</v>
+        <v>0.0001101138337851883</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.005155614423159E-13</v>
+        <v>1.136845098984072E-14</v>
       </c>
       <c r="E6">
-        <v>1.005155614423159E-13</v>
+        <v>1.136845098984072E-14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999999647</v>
+        <v>0.9999999999705649</v>
       </c>
       <c r="E7">
-        <v>3.530509218307998E-14</v>
+        <v>2.943512100728185E-11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0195781813239137</v>
+        <v>0.0003717194553826953</v>
       </c>
       <c r="E8">
-        <v>0.9804218186760864</v>
+        <v>0.9996282805446173</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.826442608087986E-12</v>
+        <v>4.656889161996679E-08</v>
       </c>
       <c r="E9">
-        <v>0.9999999999951735</v>
+        <v>0.9999999534311084</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.491310027760542E-08</v>
+        <v>1.42208307459904E-12</v>
       </c>
       <c r="E10">
-        <v>0.9999999750868998</v>
+        <v>0.9999999999985779</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.155893956917537E-09</v>
+        <v>3.069329227767317E-06</v>
       </c>
       <c r="E11">
-        <v>0.9999999988441061</v>
+        <v>0.9999969306707722</v>
       </c>
       <c r="F11">
-        <v>9.266064643859863</v>
+        <v>9.648359298706055</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
